--- a/biology/Botanique/Dicorynia/Dicorynia.xlsx
+++ b/biology/Botanique/Dicorynia/Dicorynia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dicorynia est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Caesalpinioideae, originaire d'Amérique du Sud, qui comprend deux espèces acceptées[2].
-Ce sont des arbres qui se rencontrent généralement dans les forêts pluviales ripariennes ou marécageuses[3].
-Le bois de ces arbres est commercialisé comme bois d'œuvre sous le nom de « basralocus » (ou « angélique » en Guyane)[4],[5].
+Dicorynia est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Caesalpinioideae, originaire d'Amérique du Sud, qui comprend deux espèces acceptées.
+Ce sont des arbres qui se rencontrent généralement dans les forêts pluviales ripariennes ou marécageuses.
+Le bois de ces arbres est commercialisé comme bois d'œuvre sous le nom de « basralocus » (ou « angélique » en Guyane),.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est présent en forêt tropicale en Amérique du Sud, dans le bassin amazonien et sur le plateau des Guyanes.
 </t>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (20 décembre 2018)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (20 décembre 2018) :
 Dicorynia guianensis Amshoff
 Dicorynia paraensis Benth.
 </t>
